--- a/tabela Denavi-Hartenberg.xlsx
+++ b/tabela Denavi-Hartenberg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Desktop\Codigos-matilab-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F5F0E6-E5B6-432C-8D3B-CDC89F50B62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5F3697-E67A-40FC-9F09-2A8E482D7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>θᵢ</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>var</t>
   </si>
 </sst>
 </file>
@@ -373,6 +376,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>365042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FEA3E2-4E51-8533-773A-31DF94FD1CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401675" y="238125"/>
+          <a:ext cx="4533900" cy="2431967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B68B00B-7A55-48F7-B4AE-4E1492EA994E}">
   <dimension ref="F2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +797,18 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1">
+        <v>450</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-90</v>
+      </c>
       <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
@@ -759,6 +823,18 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>200</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-90</v>
+      </c>
       <c r="L5" s="6" t="s">
         <v>12</v>
       </c>
@@ -773,6 +849,18 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>350</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
       <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
@@ -787,6 +875,18 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>150</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-90</v>
+      </c>
       <c r="L7" s="8" t="s">
         <v>18</v>
       </c>
@@ -801,10 +901,34 @@
       <c r="F8" s="1">
         <v>5</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1">
         <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>175</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -813,5 +937,6 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabela Denavi-Hartenberg.xlsx
+++ b/tabela Denavi-Hartenberg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHPGo\OneDrive\Desktop\Codigos-matilab-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\OneDrive\Documents\GitHub\Codigos-matilab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5F3697-E67A-40FC-9F09-2A8E482D7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E7097-A02E-4AF0-ACC4-190E496FA1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D4C947-C9B4-4846-8F69-20BC41EA700B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>θᵢ</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>var</t>
+  </si>
+  <si>
+    <t>var - 90</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-5</t>
   </si>
 </sst>
 </file>
@@ -326,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +380,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,12 +771,12 @@
   <dimension ref="F2:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
     <col min="7" max="10" width="20.42578125" style="1" customWidth="1"/>
     <col min="12" max="14" width="17.85546875" style="1" customWidth="1"/>
   </cols>
@@ -768,7 +792,7 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -794,20 +818,20 @@
       </c>
     </row>
     <row r="4" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>9</v>
@@ -820,20 +844,20 @@
       </c>
     </row>
     <row r="5" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F5" s="1">
-        <v>2</v>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
+        <v>-310</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-90</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>12</v>
@@ -846,20 +870,20 @@
       </c>
     </row>
     <row r="6" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <v>350</v>
-      </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>15</v>
@@ -872,20 +896,20 @@
       </c>
     </row>
     <row r="7" spans="6:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="1">
-        <v>4</v>
+      <c r="F7" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="1">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>18</v>
@@ -898,8 +922,8 @@
       </c>
     </row>
     <row r="8" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="1">
-        <v>5</v>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -911,18 +935,18 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="9" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="1">
-        <v>6</v>
+      <c r="F9" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="1">
-        <v>175</v>
+        <v>86.5</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
